--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -1504,7 +1504,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -2742,10 +2742,14 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -2906,7 +2906,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2961,10 +2961,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Until 9:30</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -3012,14 +3016,10 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Until 9:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3067,10 +3067,14 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3153,7 +3157,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3216,7 +3220,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3271,12 +3275,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3327,22 +3332,9 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
@@ -3424,7 +3416,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3457,7 +3453,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3486,11 +3482,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -3058,7 +3058,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>until 11:00</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -1504,7 +1504,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1698,10 +1698,14 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1774,7 +1778,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1837,7 +1841,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1893,21 +1897,9 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
@@ -2037,7 +2029,11 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2094,7 +2090,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2154,7 +2150,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2217,7 +2213,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2276,7 +2272,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2323,7 +2319,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2366,7 +2362,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2417,7 +2413,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2460,7 +2456,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2499,7 +2495,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2548,11 +2544,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2586,9 +2578,21 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2615,19 +2619,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2682,12 +2682,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2735,21 +2735,9 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Until noon</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -2834,7 +2822,11 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2879,7 +2871,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2922,7 +2914,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2981,7 +2973,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3032,7 +3024,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3089,11 +3081,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3135,9 +3123,21 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3180,19 +3180,15 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3239,12 +3235,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3305,16 +3301,8 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1242,10 +1242,16 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1293,10 +1299,14 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1305,14 +1315,14 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe,
-Supv Rx</t>
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1366,32 +1376,28 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
 Red Van,
 Rx</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
@@ -1431,16 +1437,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1555,10 +1555,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1618,7 +1622,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1634,10 +1638,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1682,12 +1690,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1698,7 +1707,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1761,15 +1770,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1829,26 +1833,18 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1888,7 +1884,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1955,17 +1951,22 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2018,20 +2019,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2090,7 +2090,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2150,7 +2150,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2213,7 +2213,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2253,26 +2253,14 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2319,7 +2307,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2356,13 +2344,17 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2405,7 +2397,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2413,7 +2405,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2448,7 +2440,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2456,7 +2448,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2487,17 +2479,13 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2538,14 +2526,26 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2571,28 +2571,20 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2613,18 +2605,30 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2666,30 +2670,18 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2718,19 +2710,19 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2765,25 +2757,21 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2812,10 +2800,14 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2824,7 +2816,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2855,23 +2847,23 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2898,15 +2890,19 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Until 9:30</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2914,7 +2910,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2953,19 +2949,15 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Until 9:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL SCAN</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2973,7 +2965,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3008,25 +3000,25 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL SCAN</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3063,7 +3055,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3075,14 +3067,26 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3106,7 +3110,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3118,26 +3122,22 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3171,21 +3171,17 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3220,29 +3216,34 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3268,36 +3269,24 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3330,20 +3319,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3369,19 +3353,15 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3410,7 +3390,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3443,15 +3423,15 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3480,7 +3460,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3523,7 +3503,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3550,10 +3530,15 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3562,7 +3547,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3589,15 +3574,10 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3606,7 +3586,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3633,7 +3613,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3645,7 +3625,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3672,10 +3652,14 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3684,7 +3668,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3711,7 +3695,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3727,7 +3711,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3754,7 +3738,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3768,11 +3752,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3790,29 +3770,30 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -3839,20 +3820,15 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3879,12 +3855,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3899,41 +3875,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -606,7 +606,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Oil change for Optima</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1230,10 +1234,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1299,14 +1307,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1376,14 +1380,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1437,10 +1439,16 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1492,7 +1500,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1555,14 +1563,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2722,10 +2726,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3137,7 +3145,11 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3825,7 +3837,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -1575,7 +1575,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1642,14 +1642,10 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1711,7 +1707,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1786,7 +1782,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1846,9 +1842,21 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1966,11 +1974,7 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2035,7 +2039,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2094,7 +2098,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2154,7 +2158,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2217,7 +2221,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2264,7 +2268,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2311,7 +2315,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2358,7 +2362,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2409,7 +2413,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2452,7 +2456,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2489,7 +2493,11 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2535,21 +2543,9 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2580,15 +2576,19 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2627,12 +2627,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2684,8 +2684,16 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2775,11 +2783,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2824,7 +2828,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2871,7 +2875,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2918,7 +2922,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2973,7 +2977,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3026,7 +3030,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3080,21 +3088,9 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3137,17 +3133,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3188,15 +3184,19 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3254,8 +3254,16 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3664,14 +3672,10 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3707,7 +3711,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3750,7 +3754,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3782,9 +3786,21 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -749,7 +749,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2875,7 +2875,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2969,7 +2969,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL SCAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -2859,7 +2859,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2902,14 +2902,10 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Until 9:30</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2961,10 +2957,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Until 9:30</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -3012,14 +3012,10 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3071,7 +3067,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3114,7 +3110,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3169,7 +3165,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3228,13 +3224,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3289,9 +3284,22 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -3373,11 +3381,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3410,7 +3414,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3443,7 +3447,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -597,33 +669,57 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Oil change for Optima</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -637,11 +733,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Oil change for Optima</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -668,43 +776,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -714,10 +802,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +817,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -733,7 +825,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">4:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +833,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -749,7 +841,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -764,7 +856,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -772,7 +864,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -780,7 +872,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -788,7 +880,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -796,7 +888,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE (MILWAUKEE)</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -811,7 +903,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>123 W OKLAHOMA AVE</t>
+          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -819,7 +911,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #515 +RX, CHICAGO - LAWRENCE AND RAVENSWOOD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,8 +919,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #535 +RX, 
-ORLAND PARK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -836,7 +927,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>MARIANO'S #523 +RX, GURNEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -844,7 +935,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>OPEN PANTRY #605, BAYSIDE (MILWAUKEE)</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -859,7 +950,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
+          <t>123 W OKLAHOMA AVE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -867,7 +958,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1800 WEST LAWRENCE AVE</t>
+          <t>MARIANO'S #515 +RX, CHICAGO - LAWRENCE AND RAVENSWOOD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -875,7 +966,8 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9504 142ND ST</t>
+          <t>MARIANO'S #535 +RX, 
+ORLAND PARK</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -883,7 +975,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>6655 GRAND AVE</t>
+          <t>MARIANO'S #523 +RX, GURNEE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -891,7 +983,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -904,13 +996,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fhp2WWuMFCQ2</t>
+          <t>1800 WEST LAWRENCE AVE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -918,7 +1014,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/x3S76RraqQ82</t>
+          <t>9504 142ND ST</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -926,13 +1022,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
+          <t>6655 GRAND AVE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -942,26 +1042,14 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/fhp2WWuMFCQ2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -969,30 +1057,22 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 OR 2</t>
+          <t>https://goo.gl/maps/x3S76RraqQ82</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -1003,51 +1083,55 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1 OR 2</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1058,75 +1142,51 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1137,55 +1197,75 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1196,70 +1276,51 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1274,12 +1335,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1290,52 +1351,57 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Rx</t>
+Sante Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -1347,12 +1413,12 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1363,48 +1429,50 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1416,48 +1484,58 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1465,7 +1543,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1483,36 +1561,42 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1520,7 +1604,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>N93 W14575 WHITTAKER WAY</t>
+          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1533,49 +1617,41 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1583,7 +1659,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+          <t>N93 W14575 WHITTAKER WAY</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1598,19 +1674,19 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1621,34 +1697,34 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1661,76 +1737,58 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1742,47 +1800,53 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6901 W EDGERTON AVENUE</t>
+          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1791,9 +1855,21 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1805,19 +1881,19 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+          <t>6901 W EDGERTON AVENUE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1828,28 +1904,24 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1870,17 +1942,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1891,30 +1967,38 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>13)</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -1924,30 +2008,18 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1958,18 +2030,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -1980,7 +2051,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1994,24 +2065,28 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2022,32 +2097,29 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2059,18 +2131,26 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2081,12 +2161,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2098,7 +2178,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2106,7 +2186,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>5501 N LOVERS LANE</t>
+          <t>ROETTGERS HIGHWAY 45 ARC, MILWAUKEE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2124,29 +2204,28 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2158,7 +2237,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2166,7 +2245,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+          <t>5501 N LOVERS LANE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2179,37 +2258,34 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2221,13 +2297,17 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2301 N LAKE DR</t>
+          <t>ASCENSION SETON RX #1112, MILWAUKEE</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2240,19 +2320,19 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2261,33 +2341,33 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
+          <t>2301 N LAKE DR</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2299,14 +2379,26 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2315,22 +2407,26 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/fovW5S1B5ZD2</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2342,7 +2438,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1264, PORT WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2352,29 +2448,25 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2389,23 +2481,19 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1475 W GRAND AVE</t>
+          <t>AURORA OUTPATIENT RX #1264, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2413,13 +2501,21 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2432,7 +2528,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eMESBveZrkcjkpYJ8</t>
+          <t>1475 W GRAND AVE</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2440,7 +2536,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2448,7 +2544,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2456,7 +2552,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
+          <t>ASCENSION CSM OZAUKEE RETAIL RX #1109, MEQUON</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2473,13 +2569,17 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eMESBveZrkcjkpYJ8</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>METRO #371 +RX, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2487,7 +2587,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2495,7 +2595,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+          <t>13133 N PORT WASHINGTON RD SUITE G1</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2511,26 +2611,14 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1123 N VAN BUREN STREET</t>
+          <t>METRO #371 +RX, MILWAUKEE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2538,13 +2626,17 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ZV1UXpiCr4u</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2558,37 +2650,41 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
+          <t>1123 N VAN BUREN STREET</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2606,36 +2702,32 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2649,49 +2741,37 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2710,41 +2790,49 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>3)</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -2761,26 +2849,38 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2800,37 +2900,29 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2847,35 +2939,35 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+          <t>17235 W BLUEMOUND RD</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2892,17 +2984,21 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2910,7 +3006,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2918,7 +3014,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2934,42 +3030,26 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Until 9:30</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2977,7 +3057,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2995,32 +3075,40 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Until 9:30</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3028,7 +3116,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3046,46 +3134,42 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>until 11:00</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3099,18 +3183,30 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>until 11:00</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3122,26 +3218,14 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3160,12 +3244,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3175,22 +3259,26 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>Optima available, Equip</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3205,26 +3293,18 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:30 AM MEET WATERTOWN PLANK </t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3233,33 +3313,25 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3279,47 +3351,53 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">4:30 AM MEET WATERTOWN PLANK </t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3333,29 +3411,51 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3375,7 +3475,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #387, WINNECONNE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3384,8 +3484,16 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3406,17 +3514,13 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>910 E MAIN ST</t>
+          <t>PIGGLY WIGGLY #387, WINNECONNE</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3441,7 +3545,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yDNLLcepRYT2</t>
+          <t>910 E MAIN ST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3449,17 +3553,13 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3478,17 +3578,25 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/yDNLLcepRYT2</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
+          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3508,21 +3616,9 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3531,7 +3627,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3553,18 +3649,17 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3575,7 +3670,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3597,15 +3692,20 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3614,7 +3714,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3636,12 +3736,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3653,7 +3753,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3675,12 +3775,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3692,7 +3792,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3714,19 +3814,15 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3735,7 +3831,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3757,12 +3853,12 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3776,7 +3872,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3796,12 +3896,12 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3814,22 +3914,9 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -3846,9 +3933,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3856,15 +3955,20 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3891,12 +3995,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3911,6 +4015,41 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -2998,7 +2998,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3041,10 +3041,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Until 9:30</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -3096,14 +3100,10 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Until 9:30</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3151,10 +3151,14 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3206,7 +3210,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3249,7 +3253,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3304,7 +3308,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3363,12 +3367,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3423,22 +3428,9 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
@@ -3520,7 +3512,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3553,7 +3549,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3586,11 +3582,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2341,21 +2341,9 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2448,7 +2436,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2493,7 +2485,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2544,7 +2536,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2587,7 +2579,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC, WAUWATOSA</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2626,7 +2618,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2675,11 +2667,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2709,9 +2697,21 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2750,19 +2750,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2813,15 +2809,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2866,21 +2866,9 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2961,7 +2949,11 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3006,7 +2998,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3053,7 +3045,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3108,7 +3100,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3163,7 +3155,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3222,7 +3214,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3263,11 +3255,7 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3317,9 +3305,21 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3379,17 +3379,18 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3434,20 +3435,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3476,16 +3472,8 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3555,7 +3543,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3588,7 +3580,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3619,7 +3611,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>PARKING IS ACROSS THE STREET FOR THIS SITE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3662,7 +3654,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3706,7 +3698,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3745,7 +3737,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3784,7 +3776,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3823,7 +3815,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3864,11 +3856,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>SITE WAS REMODELED, NEEDS TO BE REMAPPED FOR THIS INVEN</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3906,9 +3894,22 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -3947,20 +3948,15 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3987,12 +3983,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4007,41 +4003,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
+++ b/05-04-25 to 05-10-25 Milwaukee Schedule.xlsx
@@ -1835,7 +1835,7 @@
       <c r="O26" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+White Camry</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
